--- a/sofaplayer/Ligue_1/Olympique de Marseille_stats.xlsx
+++ b/sofaplayer/Ligue_1/Olympique de Marseille_stats.xlsx
@@ -1035,40 +1035,40 @@
         <v>942116</v>
       </c>
       <c r="E2" t="n">
-        <v>7.505</v>
+        <v>7.5142857142857</v>
       </c>
       <c r="F2" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G2" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H2" t="n">
-        <v>1561</v>
+        <v>1651</v>
       </c>
       <c r="I2" t="n">
         <v>5</v>
       </c>
       <c r="J2" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K2" t="n">
-        <v>9.917999999999999</v>
+        <v>10.4436</v>
       </c>
       <c r="L2" t="n">
-        <v>120.07692307692</v>
+        <v>117.92857142857</v>
       </c>
       <c r="M2" t="n">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="N2" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="O2" t="n">
         <v>3</v>
       </c>
       <c r="P2" t="n">
-        <v>19.117647058824</v>
+        <v>19.444444444444</v>
       </c>
       <c r="Q2" t="n">
         <v>5</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="U2" t="n">
         <v>3</v>
@@ -1092,7 +1092,7 @@
         <v>4</v>
       </c>
       <c r="X2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Y2" t="n">
         <v>3</v>
@@ -1101,10 +1101,10 @@
         <v>4</v>
       </c>
       <c r="AA2" t="n">
-        <v>4.101966</v>
+        <v>4.1206815</v>
       </c>
       <c r="AB2" t="n">
-        <v>1184</v>
+        <v>1234</v>
       </c>
       <c r="AC2" t="n">
         <v>9</v>
@@ -1113,49 +1113,49 @@
         <v>42</v>
       </c>
       <c r="AE2" t="n">
-        <v>705</v>
+        <v>733</v>
       </c>
       <c r="AF2" t="n">
-        <v>82.35981308411201</v>
+        <v>82.359550561798</v>
       </c>
       <c r="AG2" t="n">
-        <v>856</v>
+        <v>890</v>
       </c>
       <c r="AH2" t="n">
-        <v>193</v>
+        <v>206</v>
       </c>
       <c r="AI2" t="n">
-        <v>512</v>
+        <v>527</v>
       </c>
       <c r="AJ2" t="n">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="AK2" t="n">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AL2" t="n">
-        <v>69.04761904761899</v>
+        <v>68.965517241379</v>
       </c>
       <c r="AM2" t="n">
         <v>19</v>
       </c>
       <c r="AN2" t="n">
-        <v>27.536231884058</v>
+        <v>27.142857142857</v>
       </c>
       <c r="AO2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AP2" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AQ2" t="n">
         <v>10</v>
       </c>
       <c r="AR2" t="n">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="AS2" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AT2" t="n">
         <v>2</v>
@@ -1173,22 +1173,22 @@
         <v>0</v>
       </c>
       <c r="AY2" t="n">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="AZ2" t="n">
-        <v>49.206349206349</v>
+        <v>52.238805970149</v>
       </c>
       <c r="BA2" t="n">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="BB2" t="n">
-        <v>43.307086614173</v>
+        <v>44.202898550725</v>
       </c>
       <c r="BC2" t="n">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="BD2" t="n">
-        <v>43.801652892562</v>
+        <v>44.69696969697</v>
       </c>
       <c r="BE2" t="n">
         <v>2</v>
@@ -1197,10 +1197,10 @@
         <v>33.333333333333</v>
       </c>
       <c r="BG2" t="n">
-        <v>292</v>
+        <v>303</v>
       </c>
       <c r="BH2" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BI2" t="n">
         <v>16</v>
@@ -1221,28 +1221,28 @@
         <v>3</v>
       </c>
       <c r="BO2" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="BP2" t="n">
         <v>0</v>
       </c>
       <c r="BQ2" t="n">
-        <v>150.1</v>
+        <v>157.8</v>
       </c>
       <c r="BR2" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BS2" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BT2" t="n">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="BU2" t="n">
         <v>0</v>
       </c>
       <c r="BV2" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="BW2" t="n">
         <v>6</v>
@@ -1254,19 +1254,19 @@
         <v>3</v>
       </c>
       <c r="BZ2" t="n">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="CA2" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="CB2" t="n">
         <v>13</v>
       </c>
       <c r="CC2" t="n">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="CD2" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="CE2" t="n">
         <v>0</v>
@@ -1284,7 +1284,7 @@
         <v>0</v>
       </c>
       <c r="CJ2" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="CK2" t="n">
         <v>0</v>
@@ -1311,13 +1311,13 @@
         <v>40</v>
       </c>
       <c r="CS2" t="n">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="CT2" t="n">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="CU2" t="n">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="CV2" t="n">
         <v>4</v>
@@ -1332,13 +1332,13 @@
         <v>0</v>
       </c>
       <c r="CZ2" t="n">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="DA2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="DB2" t="n">
-        <v>100</v>
+        <v>87.5</v>
       </c>
       <c r="DC2" t="n">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="DF2" t="n">
-        <v>220</v>
+        <v>234</v>
       </c>
       <c r="DG2" t="n">
-        <v>636</v>
+        <v>656</v>
       </c>
       <c r="DH2" t="n">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>51498</v>
       </c>
       <c r="E3" t="n">
-        <v>6.9444444444444</v>
+        <v>7.0052631578947</v>
       </c>
       <c r="F3" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H3" t="n">
-        <v>1115</v>
+        <v>1186</v>
       </c>
       <c r="I3" t="n">
         <v>1</v>
@@ -1409,22 +1409,22 @@
         <v>6</v>
       </c>
       <c r="K3" t="n">
-        <v>7.2952</v>
+        <v>7.5488</v>
       </c>
       <c r="L3" t="n">
-        <v>185.83333333333</v>
+        <v>197.66666666667</v>
       </c>
       <c r="M3" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="N3" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="O3" t="n">
         <v>8</v>
       </c>
       <c r="P3" t="n">
-        <v>20.689655172414</v>
+        <v>19.354838709677</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -1457,58 +1457,58 @@
         <v>5</v>
       </c>
       <c r="AA3" t="n">
-        <v>2.45640525</v>
+        <v>3.08041725</v>
       </c>
       <c r="AB3" t="n">
-        <v>384</v>
+        <v>431</v>
       </c>
       <c r="AC3" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>18</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>232</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>83.45323741007201</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>278</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>96</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>136</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>93</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>62.5</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>11.764705882353</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>4</v>
+      </c>
+      <c r="AP3" t="n">
         <v>7</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>16</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>208</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>82.868525896414</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>251</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>88</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>120</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>82</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>3</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>60</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>2</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>13.333333333333</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>3</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>3</v>
       </c>
       <c r="AQ3" t="n">
         <v>5</v>
       </c>
       <c r="AR3" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="AS3" t="n">
         <v>6</v>
@@ -1529,37 +1529,37 @@
         <v>0</v>
       </c>
       <c r="AY3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AZ3" t="n">
-        <v>40</v>
+        <v>38.461538461538</v>
       </c>
       <c r="BA3" t="n">
+        <v>30</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>38.961038961039</v>
+      </c>
+      <c r="BC3" t="n">
         <v>23</v>
       </c>
-      <c r="BB3" t="n">
-        <v>34.848484848485</v>
-      </c>
-      <c r="BC3" t="n">
-        <v>16</v>
-      </c>
       <c r="BD3" t="n">
-        <v>33.333333333333</v>
+        <v>39.655172413793</v>
       </c>
       <c r="BE3" t="n">
         <v>7</v>
       </c>
       <c r="BF3" t="n">
-        <v>38.888888888889</v>
+        <v>36.842105263158</v>
       </c>
       <c r="BG3" t="n">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="BH3" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BI3" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BJ3" t="n">
         <v>5</v>
@@ -1583,16 +1583,16 @@
         <v>0</v>
       </c>
       <c r="BQ3" t="n">
-        <v>125</v>
+        <v>133.1</v>
       </c>
       <c r="BR3" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BS3" t="n">
         <v>11</v>
       </c>
       <c r="BT3" t="n">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="BU3" t="n">
         <v>0</v>
@@ -1610,7 +1610,7 @@
         <v>0</v>
       </c>
       <c r="BZ3" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="CA3" t="n">
         <v>3</v>
@@ -1619,10 +1619,10 @@
         <v>7</v>
       </c>
       <c r="CC3" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="CD3" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="CE3" t="n">
         <v>0</v>
@@ -1664,19 +1664,19 @@
         <v>0</v>
       </c>
       <c r="CR3" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="CS3" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="CT3" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="CU3" t="n">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="CV3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="CW3" t="n">
         <v>0</v>
@@ -1688,13 +1688,13 @@
         <v>0</v>
       </c>
       <c r="CZ3" t="n">
+        <v>8</v>
+      </c>
+      <c r="DA3" t="n">
         <v>5</v>
       </c>
-      <c r="DA3" t="n">
-        <v>1</v>
-      </c>
       <c r="DB3" t="n">
-        <v>33.333333333333</v>
+        <v>71.428571428571</v>
       </c>
       <c r="DC3" t="n">
         <v>0</v>
@@ -1706,10 +1706,10 @@
         <v>0</v>
       </c>
       <c r="DF3" t="n">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="DG3" t="n">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="DH3" t="n">
         <v>0</v>
@@ -1747,40 +1747,40 @@
         <v>859026</v>
       </c>
       <c r="E4" t="n">
-        <v>6.8272727272727</v>
+        <v>6.9333333333333</v>
       </c>
       <c r="F4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G4" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H4" t="n">
-        <v>652</v>
+        <v>737</v>
       </c>
       <c r="I4" t="n">
         <v>2</v>
       </c>
       <c r="J4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K4" t="n">
-        <v>3.9309</v>
+        <v>3.9785</v>
       </c>
       <c r="L4" t="n">
-        <v>163</v>
+        <v>147.4</v>
       </c>
       <c r="M4" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O4" t="n">
         <v>5</v>
       </c>
       <c r="P4" t="n">
-        <v>17.391304347826</v>
+        <v>20.833333333333</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -1792,7 +1792,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -1804,43 +1804,43 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Y4" t="n">
         <v>1</v>
       </c>
       <c r="Z4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.81452317</v>
+        <v>1.11294917</v>
       </c>
       <c r="AB4" t="n">
-        <v>301</v>
+        <v>337</v>
       </c>
       <c r="AC4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AD4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AE4" t="n">
-        <v>155</v>
+        <v>176</v>
       </c>
       <c r="AF4" t="n">
-        <v>84.23913043478299</v>
+        <v>85.024154589372</v>
       </c>
       <c r="AG4" t="n">
-        <v>184</v>
+        <v>207</v>
       </c>
       <c r="AH4" t="n">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="AI4" t="n">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="AJ4" t="n">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="AK4" t="n">
         <v>2</v>
@@ -1858,13 +1858,13 @@
         <v>2</v>
       </c>
       <c r="AP4" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AQ4" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AR4" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AS4" t="n">
         <v>2</v>
@@ -1888,28 +1888,28 @@
         <v>9</v>
       </c>
       <c r="AZ4" t="n">
-        <v>34.615384615385</v>
+        <v>31.034482758621</v>
       </c>
       <c r="BA4" t="n">
+        <v>25</v>
+      </c>
+      <c r="BB4" t="n">
+        <v>36.764705882353</v>
+      </c>
+      <c r="BC4" t="n">
         <v>21</v>
       </c>
-      <c r="BB4" t="n">
-        <v>38.181818181818</v>
-      </c>
-      <c r="BC4" t="n">
-        <v>19</v>
-      </c>
       <c r="BD4" t="n">
-        <v>38.775510204082</v>
+        <v>36.842105263158</v>
       </c>
       <c r="BE4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BF4" t="n">
-        <v>33.333333333333</v>
+        <v>36.363636363636</v>
       </c>
       <c r="BG4" t="n">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="BH4" t="n">
         <v>4</v>
@@ -1933,22 +1933,22 @@
         <v>0</v>
       </c>
       <c r="BO4" t="n">
+        <v>13</v>
+      </c>
+      <c r="BP4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ4" t="n">
+        <v>83.2</v>
+      </c>
+      <c r="BR4" t="n">
         <v>12</v>
       </c>
-      <c r="BP4" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ4" t="n">
-        <v>75.09999999999999</v>
-      </c>
-      <c r="BR4" t="n">
-        <v>11</v>
-      </c>
       <c r="BS4" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BT4" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="BU4" t="n">
         <v>0</v>
@@ -1966,13 +1966,13 @@
         <v>1</v>
       </c>
       <c r="BZ4" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="CA4" t="n">
         <v>5</v>
       </c>
       <c r="CB4" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="CC4" t="n">
         <v>4</v>
@@ -1996,7 +1996,7 @@
         <v>0</v>
       </c>
       <c r="CJ4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="CK4" t="n">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         <v>0</v>
       </c>
       <c r="CR4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="CS4" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="CT4" t="n">
         <v>19</v>
       </c>
       <c r="CU4" t="n">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="CV4" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="CW4" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>4</v>
       </c>
       <c r="DA4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="DB4" t="n">
-        <v>60</v>
+        <v>71.428571428571</v>
       </c>
       <c r="DC4" t="n">
         <v>0</v>
@@ -2062,10 +2062,10 @@
         <v>0</v>
       </c>
       <c r="DF4" t="n">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="DG4" t="n">
-        <v>129</v>
+        <v>145</v>
       </c>
       <c r="DH4" t="n">
         <v>0</v>
@@ -2103,16 +2103,16 @@
         <v>981815</v>
       </c>
       <c r="E5" t="n">
-        <v>6.8555555555556</v>
+        <v>6.8315789473684</v>
       </c>
       <c r="F5" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G5" t="n">
         <v>13</v>
       </c>
       <c r="H5" t="n">
-        <v>1146</v>
+        <v>1165</v>
       </c>
       <c r="I5" t="n">
         <v>1</v>
@@ -2121,22 +2121,22 @@
         <v>4</v>
       </c>
       <c r="K5" t="n">
-        <v>3.4726</v>
+        <v>3.5813</v>
       </c>
       <c r="L5" t="n">
-        <v>286.5</v>
+        <v>291.25</v>
       </c>
       <c r="M5" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N5" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O5" t="n">
         <v>2</v>
       </c>
       <c r="P5" t="n">
-        <v>12.5</v>
+        <v>12.121212121212</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -2169,10 +2169,10 @@
         <v>2</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.95598177</v>
+        <v>1.03766297</v>
       </c>
       <c r="AB5" t="n">
-        <v>636</v>
+        <v>645</v>
       </c>
       <c r="AC5" t="n">
         <v>1</v>
@@ -2181,28 +2181,28 @@
         <v>11</v>
       </c>
       <c r="AE5" t="n">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="AF5" t="n">
-        <v>83.04239401496299</v>
+        <v>82.843137254902</v>
       </c>
       <c r="AG5" t="n">
-        <v>401</v>
+        <v>408</v>
       </c>
       <c r="AH5" t="n">
         <v>76</v>
       </c>
       <c r="AI5" t="n">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="AJ5" t="n">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="AK5" t="n">
         <v>11</v>
       </c>
       <c r="AL5" t="n">
-        <v>55</v>
+        <v>52.380952380952</v>
       </c>
       <c r="AM5" t="n">
         <v>2</v>
@@ -2241,34 +2241,34 @@
         <v>0</v>
       </c>
       <c r="AY5" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AZ5" t="n">
-        <v>36.363636363636</v>
+        <v>37.777777777778</v>
       </c>
       <c r="BA5" t="n">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="BB5" t="n">
-        <v>40.845070422535</v>
+        <v>41.095890410959</v>
       </c>
       <c r="BC5" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="BD5" t="n">
-        <v>42.857142857143</v>
+        <v>42.982456140351</v>
       </c>
       <c r="BE5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BF5" t="n">
-        <v>33.333333333333</v>
+        <v>34.375</v>
       </c>
       <c r="BG5" t="n">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="BH5" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BI5" t="n">
         <v>19</v>
@@ -2277,7 +2277,7 @@
         <v>3</v>
       </c>
       <c r="BK5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BL5" t="n">
         <v>0</v>
@@ -2289,22 +2289,22 @@
         <v>1</v>
       </c>
       <c r="BO5" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="BP5" t="n">
         <v>0</v>
       </c>
       <c r="BQ5" t="n">
-        <v>123.4</v>
+        <v>129.8</v>
       </c>
       <c r="BR5" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BS5" t="n">
         <v>6</v>
       </c>
       <c r="BT5" t="n">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="BU5" t="n">
         <v>0</v>
@@ -2322,7 +2322,7 @@
         <v>0</v>
       </c>
       <c r="BZ5" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="CA5" t="n">
         <v>12</v>
@@ -2331,7 +2331,7 @@
         <v>13</v>
       </c>
       <c r="CC5" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="CD5" t="n">
         <v>8</v>
@@ -2352,7 +2352,7 @@
         <v>0</v>
       </c>
       <c r="CJ5" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="CK5" t="n">
         <v>0</v>
@@ -2379,16 +2379,16 @@
         <v>11</v>
       </c>
       <c r="CS5" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="CT5" t="n">
         <v>17</v>
       </c>
       <c r="CU5" t="n">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="CV5" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="CW5" t="n">
         <v>0</v>
@@ -2400,7 +2400,7 @@
         <v>0</v>
       </c>
       <c r="CZ5" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="DA5" t="n">
         <v>6</v>
@@ -2421,7 +2421,7 @@
         <v>85</v>
       </c>
       <c r="DG5" t="n">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="DH5" t="n">
         <v>0</v>
@@ -2815,31 +2815,31 @@
         <v>855810</v>
       </c>
       <c r="E7" t="n">
-        <v>6.6888888888889</v>
+        <v>6.7</v>
       </c>
       <c r="F7" t="n">
+        <v>19</v>
+      </c>
+      <c r="G7" t="n">
+        <v>17</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1417</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>2</v>
+      </c>
+      <c r="K7" t="n">
+        <v>1.3637</v>
+      </c>
+      <c r="L7" t="n">
+        <v>708.5</v>
+      </c>
+      <c r="M7" t="n">
         <v>18</v>
-      </c>
-      <c r="G7" t="n">
-        <v>16</v>
-      </c>
-      <c r="H7" t="n">
-        <v>1327</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>2</v>
-      </c>
-      <c r="K7" t="n">
-        <v>1.3154</v>
-      </c>
-      <c r="L7" t="n">
-        <v>663.5</v>
-      </c>
-      <c r="M7" t="n">
-        <v>17</v>
       </c>
       <c r="N7" t="n">
         <v>8</v>
@@ -2848,7 +2848,7 @@
         <v>3</v>
       </c>
       <c r="P7" t="n">
-        <v>11.764705882353</v>
+        <v>11.111111111111</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -2881,10 +2881,10 @@
         <v>2</v>
       </c>
       <c r="AA7" t="n">
-        <v>1.70822471</v>
+        <v>1.73292011</v>
       </c>
       <c r="AB7" t="n">
-        <v>821</v>
+        <v>877</v>
       </c>
       <c r="AC7" t="n">
         <v>3</v>
@@ -2893,28 +2893,28 @@
         <v>18</v>
       </c>
       <c r="AE7" t="n">
-        <v>477</v>
+        <v>505</v>
       </c>
       <c r="AF7" t="n">
-        <v>84.87544483985801</v>
+        <v>84.73154362416101</v>
       </c>
       <c r="AG7" t="n">
-        <v>562</v>
+        <v>596</v>
       </c>
       <c r="AH7" t="n">
-        <v>195</v>
+        <v>211</v>
       </c>
       <c r="AI7" t="n">
-        <v>282</v>
+        <v>294</v>
       </c>
       <c r="AJ7" t="n">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="AK7" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AL7" t="n">
-        <v>36.363636363636</v>
+        <v>38.888888888889</v>
       </c>
       <c r="AM7" t="n">
         <v>5</v>
@@ -2923,22 +2923,22 @@
         <v>16.129032258065</v>
       </c>
       <c r="AO7" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AP7" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AQ7" t="n">
         <v>3</v>
       </c>
       <c r="AR7" t="n">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="AS7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AT7" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="AU7" t="n">
         <v>5</v>
@@ -2959,25 +2959,25 @@
         <v>38.461538461538</v>
       </c>
       <c r="BA7" t="n">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="BB7" t="n">
-        <v>49.122807017544</v>
+        <v>50.420168067227</v>
       </c>
       <c r="BC7" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="BD7" t="n">
-        <v>48.936170212766</v>
+        <v>49.484536082474</v>
       </c>
       <c r="BE7" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BF7" t="n">
-        <v>50</v>
+        <v>54.545454545455</v>
       </c>
       <c r="BG7" t="n">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="BH7" t="n">
         <v>21</v>
@@ -2989,7 +2989,7 @@
         <v>0</v>
       </c>
       <c r="BK7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BL7" t="n">
         <v>0</v>
@@ -3001,28 +3001,28 @@
         <v>1</v>
       </c>
       <c r="BO7" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="BP7" t="n">
         <v>0</v>
       </c>
       <c r="BQ7" t="n">
-        <v>120.4</v>
+        <v>127.3</v>
       </c>
       <c r="BR7" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BS7" t="n">
         <v>4</v>
       </c>
       <c r="BT7" t="n">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="BU7" t="n">
         <v>0</v>
       </c>
       <c r="BV7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BW7" t="n">
         <v>0</v>
@@ -3037,16 +3037,16 @@
         <v>9</v>
       </c>
       <c r="CA7" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="CB7" t="n">
         <v>6</v>
       </c>
       <c r="CC7" t="n">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="CD7" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="CE7" t="n">
         <v>0</v>
@@ -3064,7 +3064,7 @@
         <v>0</v>
       </c>
       <c r="CJ7" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="CK7" t="n">
         <v>1</v>
@@ -3097,7 +3097,7 @@
         <v>31</v>
       </c>
       <c r="CU7" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="CV7" t="n">
         <v>10</v>
@@ -3112,13 +3112,13 @@
         <v>0</v>
       </c>
       <c r="CZ7" t="n">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="DA7" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="DB7" t="n">
-        <v>65.384615384615</v>
+        <v>64.28571428571399</v>
       </c>
       <c r="DC7" t="n">
         <v>0</v>
@@ -3130,16 +3130,16 @@
         <v>0</v>
       </c>
       <c r="DF7" t="n">
-        <v>221</v>
+        <v>240</v>
       </c>
       <c r="DG7" t="n">
-        <v>341</v>
+        <v>356</v>
       </c>
       <c r="DH7" t="n">
         <v>0</v>
       </c>
       <c r="DI7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="DJ7" t="n">
         <v>2134212</v>
@@ -3171,16 +3171,16 @@
         <v>959805</v>
       </c>
       <c r="E8" t="n">
-        <v>6.5666666666667</v>
+        <v>6.625</v>
       </c>
       <c r="F8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H8" t="n">
-        <v>243</v>
+        <v>333</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -3189,19 +3189,19 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0.07049999999999999</v>
+        <v>0.5211</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -3237,40 +3237,40 @@
         <v>0</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.0675279</v>
+        <v>0.2298749</v>
       </c>
       <c r="AB8" t="n">
-        <v>141</v>
+        <v>215</v>
       </c>
       <c r="AC8" t="n">
         <v>0</v>
       </c>
       <c r="AD8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE8" t="n">
-        <v>90</v>
+        <v>131</v>
       </c>
       <c r="AF8" t="n">
-        <v>87.378640776699</v>
+        <v>88.513513513514</v>
       </c>
       <c r="AG8" t="n">
-        <v>103</v>
+        <v>148</v>
       </c>
       <c r="AH8" t="n">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="AI8" t="n">
-        <v>46</v>
+        <v>72</v>
       </c>
       <c r="AJ8" t="n">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="AK8" t="n">
         <v>1</v>
       </c>
       <c r="AL8" t="n">
-        <v>20</v>
+        <v>14.285714285714</v>
       </c>
       <c r="AM8" t="n">
         <v>0</v>
@@ -3279,22 +3279,22 @@
         <v>0</v>
       </c>
       <c r="AO8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP8" t="n">
+        <v>10</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>14</v>
+      </c>
+      <c r="AS8" t="n">
         <v>5</v>
       </c>
-      <c r="AQ8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR8" t="n">
-        <v>8</v>
-      </c>
-      <c r="AS8" t="n">
-        <v>2</v>
-      </c>
       <c r="AT8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -3309,172 +3309,172 @@
         <v>0</v>
       </c>
       <c r="AY8" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AZ8" t="n">
-        <v>50</v>
+        <v>45.454545454545</v>
       </c>
       <c r="BA8" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="BB8" t="n">
         <v>55</v>
       </c>
       <c r="BC8" t="n">
+        <v>22</v>
+      </c>
+      <c r="BD8" t="n">
+        <v>56.410256410256</v>
+      </c>
+      <c r="BE8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG8" t="n">
+        <v>34</v>
+      </c>
+      <c r="BH8" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI8" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK8" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO8" t="n">
+        <v>7</v>
+      </c>
+      <c r="BP8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ8" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="BR8" t="n">
+        <v>4</v>
+      </c>
+      <c r="BS8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT8" t="n">
+        <v>17</v>
+      </c>
+      <c r="BU8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV8" t="n">
+        <v>2</v>
+      </c>
+      <c r="BW8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ8" t="n">
+        <v>2</v>
+      </c>
+      <c r="CA8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB8" t="n">
+        <v>4</v>
+      </c>
+      <c r="CC8" t="n">
+        <v>4</v>
+      </c>
+      <c r="CD8" t="n">
+        <v>2</v>
+      </c>
+      <c r="CE8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ8" t="n">
+        <v>7</v>
+      </c>
+      <c r="CK8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR8" t="n">
+        <v>1</v>
+      </c>
+      <c r="CS8" t="n">
         <v>11</v>
       </c>
-      <c r="BD8" t="n">
-        <v>57.894736842105</v>
-      </c>
-      <c r="BE8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG8" t="n">
-        <v>22</v>
-      </c>
-      <c r="BH8" t="n">
-        <v>2</v>
-      </c>
-      <c r="BI8" t="n">
+      <c r="CT8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU8" t="n">
+        <v>18</v>
+      </c>
+      <c r="CV8" t="n">
+        <v>1</v>
+      </c>
+      <c r="CW8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ8" t="n">
+        <v>7</v>
+      </c>
+      <c r="DA8" t="n">
         <v>5</v>
       </c>
-      <c r="BJ8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK8" t="n">
-        <v>1</v>
-      </c>
-      <c r="BL8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO8" t="n">
-        <v>5</v>
-      </c>
-      <c r="BP8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ8" t="n">
-        <v>19.7</v>
-      </c>
-      <c r="BR8" t="n">
-        <v>3</v>
-      </c>
-      <c r="BS8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT8" t="n">
-        <v>13</v>
-      </c>
-      <c r="BU8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV8" t="n">
-        <v>1</v>
-      </c>
-      <c r="BW8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ8" t="n">
-        <v>1</v>
-      </c>
-      <c r="CA8" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB8" t="n">
-        <v>3</v>
-      </c>
-      <c r="CC8" t="n">
-        <v>3</v>
-      </c>
-      <c r="CD8" t="n">
-        <v>1</v>
-      </c>
-      <c r="CE8" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF8" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG8" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH8" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI8" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ8" t="n">
-        <v>5</v>
-      </c>
-      <c r="CK8" t="n">
-        <v>0</v>
-      </c>
-      <c r="CL8" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM8" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN8" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO8" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP8" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ8" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR8" t="n">
-        <v>0</v>
-      </c>
-      <c r="CS8" t="n">
-        <v>2</v>
-      </c>
-      <c r="CT8" t="n">
-        <v>0</v>
-      </c>
-      <c r="CU8" t="n">
-        <v>9</v>
-      </c>
-      <c r="CV8" t="n">
-        <v>1</v>
-      </c>
-      <c r="CW8" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX8" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY8" t="n">
-        <v>0</v>
-      </c>
-      <c r="CZ8" t="n">
-        <v>5</v>
-      </c>
-      <c r="DA8" t="n">
-        <v>2</v>
-      </c>
       <c r="DB8" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="DC8" t="n">
         <v>0</v>
@@ -3486,10 +3486,10 @@
         <v>0</v>
       </c>
       <c r="DF8" t="n">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="DG8" t="n">
-        <v>59</v>
+        <v>89</v>
       </c>
       <c r="DH8" t="n">
         <v>0</v>
@@ -3527,16 +3527,16 @@
         <v>945830</v>
       </c>
       <c r="E9" t="n">
-        <v>6.9428571428571</v>
+        <v>6.9133333333333</v>
       </c>
       <c r="F9" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G9" t="n">
         <v>11</v>
       </c>
       <c r="H9" t="n">
-        <v>974</v>
+        <v>993</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -3548,7 +3548,7 @@
         <v>2.1105</v>
       </c>
       <c r="L9" t="n">
-        <v>487</v>
+        <v>496.5</v>
       </c>
       <c r="M9" t="n">
         <v>14</v>
@@ -3593,34 +3593,34 @@
         <v>0</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.72111087</v>
+        <v>0.73379777</v>
       </c>
       <c r="AB9" t="n">
-        <v>811</v>
+        <v>832</v>
       </c>
       <c r="AC9" t="n">
         <v>0</v>
       </c>
       <c r="AD9" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AE9" t="n">
-        <v>540</v>
+        <v>556</v>
       </c>
       <c r="AF9" t="n">
-        <v>87.096774193548</v>
+        <v>87.14733542319701</v>
       </c>
       <c r="AG9" t="n">
-        <v>620</v>
+        <v>638</v>
       </c>
       <c r="AH9" t="n">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="AI9" t="n">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="AJ9" t="n">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="AK9" t="n">
         <v>21</v>
@@ -3632,7 +3632,7 @@
         <v>3</v>
       </c>
       <c r="AN9" t="n">
-        <v>33.333333333333</v>
+        <v>30</v>
       </c>
       <c r="AO9" t="n">
         <v>14</v>
@@ -3647,7 +3647,7 @@
         <v>66</v>
       </c>
       <c r="AS9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AT9" t="n">
         <v>11</v>
@@ -3674,13 +3674,13 @@
         <v>56</v>
       </c>
       <c r="BB9" t="n">
-        <v>51.376146788991</v>
+        <v>50.909090909091</v>
       </c>
       <c r="BC9" t="n">
         <v>48</v>
       </c>
       <c r="BD9" t="n">
-        <v>48.979591836735</v>
+        <v>48.484848484848</v>
       </c>
       <c r="BE9" t="n">
         <v>8</v>
@@ -3689,7 +3689,7 @@
         <v>72.727272727273</v>
       </c>
       <c r="BG9" t="n">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="BH9" t="n">
         <v>18</v>
@@ -3713,22 +3713,22 @@
         <v>3</v>
       </c>
       <c r="BO9" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="BP9" t="n">
         <v>0</v>
       </c>
       <c r="BQ9" t="n">
-        <v>97.2</v>
+        <v>103.7</v>
       </c>
       <c r="BR9" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BS9" t="n">
         <v>2</v>
       </c>
       <c r="BT9" t="n">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="BU9" t="n">
         <v>0</v>
@@ -3776,7 +3776,7 @@
         <v>0</v>
       </c>
       <c r="CJ9" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="CK9" t="n">
         <v>1</v>
@@ -3800,16 +3800,16 @@
         <v>0</v>
       </c>
       <c r="CR9" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="CS9" t="n">
         <v>32</v>
       </c>
       <c r="CT9" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="CU9" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="CV9" t="n">
         <v>3</v>
@@ -3842,10 +3842,10 @@
         <v>0</v>
       </c>
       <c r="DF9" t="n">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="DG9" t="n">
-        <v>299</v>
+        <v>313</v>
       </c>
       <c r="DH9" t="n">
         <v>0</v>
@@ -3883,16 +3883,16 @@
         <v>1129527</v>
       </c>
       <c r="E10" t="n">
-        <v>6.575</v>
+        <v>6.5823529411765</v>
       </c>
       <c r="F10" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H10" t="n">
-        <v>484</v>
+        <v>555</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -3949,40 +3949,40 @@
         <v>4</v>
       </c>
       <c r="AA10" t="n">
-        <v>1.32439073</v>
+        <v>1.34830183</v>
       </c>
       <c r="AB10" t="n">
-        <v>390</v>
+        <v>435</v>
       </c>
       <c r="AC10" t="n">
         <v>3</v>
       </c>
       <c r="AD10" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AE10" t="n">
-        <v>274</v>
+        <v>309</v>
       </c>
       <c r="AF10" t="n">
-        <v>89.83606557377</v>
+        <v>90.08746355685101</v>
       </c>
       <c r="AG10" t="n">
-        <v>305</v>
+        <v>343</v>
       </c>
       <c r="AH10" t="n">
-        <v>96</v>
+        <v>117</v>
       </c>
       <c r="AI10" t="n">
-        <v>178</v>
+        <v>192</v>
       </c>
       <c r="AJ10" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="AK10" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AL10" t="n">
-        <v>50</v>
+        <v>53.846153846154</v>
       </c>
       <c r="AM10" t="n">
         <v>3</v>
@@ -3991,19 +3991,19 @@
         <v>33.333333333333</v>
       </c>
       <c r="AO10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AP10" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AQ10" t="n">
         <v>4</v>
       </c>
       <c r="AR10" t="n">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="AS10" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AT10" t="n">
         <v>5</v>
@@ -4021,22 +4021,22 @@
         <v>0</v>
       </c>
       <c r="AY10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AZ10" t="n">
-        <v>60</v>
+        <v>66.666666666667</v>
       </c>
       <c r="BA10" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="BB10" t="n">
-        <v>34.848484848485</v>
+        <v>36.986301369863</v>
       </c>
       <c r="BC10" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="BD10" t="n">
-        <v>36.206896551724</v>
+        <v>38.461538461538</v>
       </c>
       <c r="BE10" t="n">
         <v>2</v>
@@ -4045,10 +4045,10 @@
         <v>25</v>
       </c>
       <c r="BG10" t="n">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="BH10" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BI10" t="n">
         <v>4</v>
@@ -4075,16 +4075,16 @@
         <v>0</v>
       </c>
       <c r="BQ10" t="n">
-        <v>105.2</v>
+        <v>111.9</v>
       </c>
       <c r="BR10" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BS10" t="n">
         <v>4</v>
       </c>
       <c r="BT10" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="BU10" t="n">
         <v>0</v>
@@ -4108,7 +4108,7 @@
         <v>3</v>
       </c>
       <c r="CB10" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="CC10" t="n">
         <v>10</v>
@@ -4156,16 +4156,16 @@
         <v>0</v>
       </c>
       <c r="CR10" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="CS10" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CT10" t="n">
         <v>9</v>
       </c>
       <c r="CU10" t="n">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="CV10" t="n">
         <v>6</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="CZ10" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="DA10" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="DB10" t="n">
-        <v>50</v>
+        <v>47.058823529412</v>
       </c>
       <c r="DC10" t="n">
         <v>1</v>
@@ -4198,10 +4198,10 @@
         <v>0</v>
       </c>
       <c r="DF10" t="n">
-        <v>104</v>
+        <v>127</v>
       </c>
       <c r="DG10" t="n">
-        <v>201</v>
+        <v>216</v>
       </c>
       <c r="DH10" t="n">
         <v>0</v>
@@ -4595,16 +4595,16 @@
         <v>149593</v>
       </c>
       <c r="E12" t="n">
-        <v>7.2210526315789</v>
+        <v>7.195</v>
       </c>
       <c r="F12" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G12" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H12" t="n">
-        <v>1571</v>
+        <v>1661</v>
       </c>
       <c r="I12" t="n">
         <v>3</v>
@@ -4616,7 +4616,7 @@
         <v>1.9271</v>
       </c>
       <c r="L12" t="n">
-        <v>785.5</v>
+        <v>830.5</v>
       </c>
       <c r="M12" t="n">
         <v>28</v>
@@ -4661,40 +4661,40 @@
         <v>3</v>
       </c>
       <c r="AA12" t="n">
-        <v>1.76063369</v>
+        <v>1.78922749</v>
       </c>
       <c r="AB12" t="n">
-        <v>1611</v>
+        <v>1686</v>
       </c>
       <c r="AC12" t="n">
         <v>3</v>
       </c>
       <c r="AD12" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AE12" t="n">
-        <v>1294</v>
+        <v>1339</v>
       </c>
       <c r="AF12" t="n">
-        <v>92.69340974212</v>
+        <v>92.408557625949</v>
       </c>
       <c r="AG12" t="n">
-        <v>1396</v>
+        <v>1449</v>
       </c>
       <c r="AH12" t="n">
-        <v>566</v>
+        <v>591</v>
       </c>
       <c r="AI12" t="n">
-        <v>728</v>
+        <v>748</v>
       </c>
       <c r="AJ12" t="n">
-        <v>321</v>
+        <v>330</v>
       </c>
       <c r="AK12" t="n">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="AL12" t="n">
-        <v>63.636363636364</v>
+        <v>61.176470588235</v>
       </c>
       <c r="AM12" t="n">
         <v>0</v>
@@ -4703,22 +4703,22 @@
         <v>0</v>
       </c>
       <c r="AO12" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AP12" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AQ12" t="n">
         <v>14</v>
       </c>
       <c r="AR12" t="n">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="AS12" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AT12" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="AU12" t="n">
         <v>6</v>
@@ -4739,31 +4739,31 @@
         <v>63.157894736842</v>
       </c>
       <c r="BA12" t="n">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="BB12" t="n">
-        <v>54.198473282443</v>
+        <v>54.285714285714</v>
       </c>
       <c r="BC12" t="n">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="BD12" t="n">
-        <v>52.336448598131</v>
+        <v>53.04347826087</v>
       </c>
       <c r="BE12" t="n">
         <v>15</v>
       </c>
       <c r="BF12" t="n">
-        <v>62.5</v>
+        <v>60</v>
       </c>
       <c r="BG12" t="n">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="BH12" t="n">
         <v>19</v>
       </c>
       <c r="BI12" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="BJ12" t="n">
         <v>0</v>
@@ -4781,22 +4781,22 @@
         <v>4</v>
       </c>
       <c r="BO12" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="BP12" t="n">
         <v>0</v>
       </c>
       <c r="BQ12" t="n">
-        <v>137.2</v>
+        <v>143.9</v>
       </c>
       <c r="BR12" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BS12" t="n">
         <v>5</v>
       </c>
       <c r="BT12" t="n">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="BU12" t="n">
         <v>0</v>
@@ -4820,13 +4820,13 @@
         <v>13</v>
       </c>
       <c r="CB12" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="CC12" t="n">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="CD12" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="CE12" t="n">
         <v>0</v>
@@ -4844,7 +4844,7 @@
         <v>0</v>
       </c>
       <c r="CJ12" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="CK12" t="n">
         <v>1</v>
@@ -4868,7 +4868,7 @@
         <v>0</v>
       </c>
       <c r="CR12" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="CS12" t="n">
         <v>19</v>
@@ -4877,10 +4877,10 @@
         <v>5</v>
       </c>
       <c r="CU12" t="n">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="CV12" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="CW12" t="n">
         <v>0</v>
@@ -4892,13 +4892,13 @@
         <v>0</v>
       </c>
       <c r="CZ12" t="n">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="DA12" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="DB12" t="n">
-        <v>56.25</v>
+        <v>57.894736842105</v>
       </c>
       <c r="DC12" t="n">
         <v>0</v>
@@ -4910,10 +4910,10 @@
         <v>0</v>
       </c>
       <c r="DF12" t="n">
-        <v>588</v>
+        <v>614</v>
       </c>
       <c r="DG12" t="n">
-        <v>808</v>
+        <v>835</v>
       </c>
       <c r="DH12" t="n">
         <v>0</v>
@@ -5663,16 +5663,16 @@
         <v>877102</v>
       </c>
       <c r="E15" t="n">
-        <v>7.2846153846154</v>
+        <v>7.2142857142857</v>
       </c>
       <c r="F15" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G15" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H15" t="n">
-        <v>1129</v>
+        <v>1219</v>
       </c>
       <c r="I15" t="n">
         <v>3</v>
@@ -5684,7 +5684,7 @@
         <v>0.4249</v>
       </c>
       <c r="L15" t="n">
-        <v>1129</v>
+        <v>1219</v>
       </c>
       <c r="M15" t="n">
         <v>6</v>
@@ -5729,10 +5729,10 @@
         <v>0</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.25185899</v>
+        <v>0.27437429</v>
       </c>
       <c r="AB15" t="n">
-        <v>1280</v>
+        <v>1338</v>
       </c>
       <c r="AC15" t="n">
         <v>1</v>
@@ -5741,28 +5741,28 @@
         <v>3</v>
       </c>
       <c r="AE15" t="n">
-        <v>1061</v>
+        <v>1099</v>
       </c>
       <c r="AF15" t="n">
-        <v>93.64518976169499</v>
+        <v>93.293718166384</v>
       </c>
       <c r="AG15" t="n">
-        <v>1133</v>
+        <v>1178</v>
       </c>
       <c r="AH15" t="n">
-        <v>658</v>
+        <v>678</v>
       </c>
       <c r="AI15" t="n">
-        <v>403</v>
+        <v>421</v>
       </c>
       <c r="AJ15" t="n">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AK15" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AL15" t="n">
-        <v>37.704918032787</v>
+        <v>36.363636363636</v>
       </c>
       <c r="AM15" t="n">
         <v>0</v>
@@ -5771,22 +5771,22 @@
         <v>0</v>
       </c>
       <c r="AO15" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AP15" t="n">
         <v>19</v>
       </c>
       <c r="AQ15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR15" t="n">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="AS15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AT15" t="n">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="AU15" t="n">
         <v>2</v>
@@ -5801,34 +5801,34 @@
         <v>0</v>
       </c>
       <c r="AY15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ15" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="BA15" t="n">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="BB15" t="n">
-        <v>58.695652173913</v>
+        <v>58</v>
       </c>
       <c r="BC15" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BD15" t="n">
-        <v>54.545454545455</v>
+        <v>52.083333333333</v>
       </c>
       <c r="BE15" t="n">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="BF15" t="n">
-        <v>62.5</v>
+        <v>63.461538461538</v>
       </c>
       <c r="BG15" t="n">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="BH15" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="BI15" t="n">
         <v>5</v>
@@ -5837,7 +5837,7 @@
         <v>0</v>
       </c>
       <c r="BK15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BL15" t="n">
         <v>0</v>
@@ -5849,22 +5849,22 @@
         <v>4</v>
       </c>
       <c r="BO15" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BP15" t="n">
         <v>0</v>
       </c>
       <c r="BQ15" t="n">
-        <v>94.7</v>
+        <v>101</v>
       </c>
       <c r="BR15" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BS15" t="n">
         <v>1</v>
       </c>
       <c r="BT15" t="n">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="BU15" t="n">
         <v>0</v>
@@ -5891,10 +5891,10 @@
         <v>3</v>
       </c>
       <c r="CC15" t="n">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="CD15" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="CE15" t="n">
         <v>0</v>
@@ -5912,7 +5912,7 @@
         <v>0</v>
       </c>
       <c r="CJ15" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="CK15" t="n">
         <v>1</v>
@@ -5939,16 +5939,16 @@
         <v>3</v>
       </c>
       <c r="CS15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CT15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CU15" t="n">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="CV15" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="CW15" t="n">
         <v>0</v>
@@ -5960,7 +5960,7 @@
         <v>0</v>
       </c>
       <c r="CZ15" t="n">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="DA15" t="n">
         <v>14</v>
@@ -5978,10 +5978,10 @@
         <v>0</v>
       </c>
       <c r="DF15" t="n">
-        <v>688</v>
+        <v>711</v>
       </c>
       <c r="DG15" t="n">
-        <v>445</v>
+        <v>467</v>
       </c>
       <c r="DH15" t="n">
         <v>20</v>
@@ -6019,16 +6019,16 @@
         <v>787505</v>
       </c>
       <c r="E16" t="n">
-        <v>6.8625</v>
+        <v>6.8117647058824</v>
       </c>
       <c r="F16" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G16" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H16" t="n">
-        <v>1117</v>
+        <v>1207</v>
       </c>
       <c r="I16" t="n">
         <v>1</v>
@@ -6040,7 +6040,7 @@
         <v>0.5628</v>
       </c>
       <c r="L16" t="n">
-        <v>1117</v>
+        <v>1207</v>
       </c>
       <c r="M16" t="n">
         <v>7</v>
@@ -6085,10 +6085,10 @@
         <v>2</v>
       </c>
       <c r="AA16" t="n">
-        <v>0.6806249599999999</v>
+        <v>0.68156775</v>
       </c>
       <c r="AB16" t="n">
-        <v>909</v>
+        <v>951</v>
       </c>
       <c r="AC16" t="n">
         <v>3</v>
@@ -6097,28 +6097,28 @@
         <v>8</v>
       </c>
       <c r="AE16" t="n">
-        <v>729</v>
+        <v>759</v>
       </c>
       <c r="AF16" t="n">
-        <v>93.58151476251599</v>
+        <v>93.35793357933601</v>
       </c>
       <c r="AG16" t="n">
-        <v>779</v>
+        <v>813</v>
       </c>
       <c r="AH16" t="n">
-        <v>386</v>
+        <v>412</v>
       </c>
       <c r="AI16" t="n">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="AJ16" t="n">
         <v>136</v>
       </c>
       <c r="AK16" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AL16" t="n">
-        <v>61.111111111111</v>
+        <v>60</v>
       </c>
       <c r="AM16" t="n">
         <v>2</v>
@@ -6127,7 +6127,7 @@
         <v>28.571428571429</v>
       </c>
       <c r="AO16" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AP16" t="n">
         <v>15</v>
@@ -6142,7 +6142,7 @@
         <v>3</v>
       </c>
       <c r="AT16" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="AU16" t="n">
         <v>2</v>
@@ -6163,28 +6163,28 @@
         <v>0</v>
       </c>
       <c r="BA16" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="BB16" t="n">
-        <v>60.869565217391</v>
+        <v>59.722222222222</v>
       </c>
       <c r="BC16" t="n">
         <v>22</v>
       </c>
       <c r="BD16" t="n">
-        <v>64.705882352941</v>
+        <v>62.857142857143</v>
       </c>
       <c r="BE16" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BF16" t="n">
-        <v>57.142857142857</v>
+        <v>56.756756756757</v>
       </c>
       <c r="BG16" t="n">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="BH16" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BI16" t="n">
         <v>8</v>
@@ -6193,7 +6193,7 @@
         <v>4</v>
       </c>
       <c r="BK16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BL16" t="n">
         <v>0</v>
@@ -6205,22 +6205,22 @@
         <v>4</v>
       </c>
       <c r="BO16" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="BP16" t="n">
         <v>0</v>
       </c>
       <c r="BQ16" t="n">
-        <v>109.8</v>
+        <v>115.8</v>
       </c>
       <c r="BR16" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BS16" t="n">
         <v>3</v>
       </c>
       <c r="BT16" t="n">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="BU16" t="n">
         <v>0</v>
@@ -6247,10 +6247,10 @@
         <v>0</v>
       </c>
       <c r="CC16" t="n">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="CD16" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="CE16" t="n">
         <v>1</v>
@@ -6268,7 +6268,7 @@
         <v>0</v>
       </c>
       <c r="CJ16" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="CK16" t="n">
         <v>1</v>
@@ -6301,10 +6301,10 @@
         <v>7</v>
       </c>
       <c r="CU16" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="CV16" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="CW16" t="n">
         <v>0</v>
@@ -6316,7 +6316,7 @@
         <v>0</v>
       </c>
       <c r="CZ16" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="DA16" t="n">
         <v>5</v>
@@ -6334,10 +6334,10 @@
         <v>0</v>
       </c>
       <c r="DF16" t="n">
-        <v>407</v>
+        <v>435</v>
       </c>
       <c r="DG16" t="n">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="DH16" t="n">
         <v>0</v>
@@ -6731,16 +6731,16 @@
         <v>860307</v>
       </c>
       <c r="E18" t="n">
-        <v>6.6142857142857</v>
+        <v>6.575</v>
       </c>
       <c r="F18" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G18" t="n">
         <v>7</v>
       </c>
       <c r="H18" t="n">
-        <v>551</v>
+        <v>566</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -6797,10 +6797,10 @@
         <v>0</v>
       </c>
       <c r="AA18" t="n">
-        <v>0.16917373</v>
+        <v>0.16975392</v>
       </c>
       <c r="AB18" t="n">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="AC18" t="n">
         <v>0</v>
@@ -6809,19 +6809,19 @@
         <v>1</v>
       </c>
       <c r="AE18" t="n">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="AF18" t="n">
-        <v>92.537313432836</v>
+        <v>92.569002123142</v>
       </c>
       <c r="AG18" t="n">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="AH18" t="n">
         <v>245</v>
       </c>
       <c r="AI18" t="n">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="AJ18" t="n">
         <v>72</v>
@@ -6893,7 +6893,7 @@
         <v>75</v>
       </c>
       <c r="BG18" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="BH18" t="n">
         <v>10</v>
@@ -6917,16 +6917,16 @@
         <v>0</v>
       </c>
       <c r="BO18" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BP18" t="n">
         <v>0</v>
       </c>
       <c r="BQ18" t="n">
-        <v>46.3</v>
+        <v>52.6</v>
       </c>
       <c r="BR18" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BS18" t="n">
         <v>0</v>
@@ -6980,7 +6980,7 @@
         <v>0</v>
       </c>
       <c r="CJ18" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="CK18" t="n">
         <v>0</v>
@@ -7010,7 +7010,7 @@
         <v>2</v>
       </c>
       <c r="CT18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CU18" t="n">
         <v>16</v>
@@ -7049,7 +7049,7 @@
         <v>257</v>
       </c>
       <c r="DG18" t="n">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="DH18" t="n">
         <v>8</v>
@@ -7087,16 +7087,16 @@
         <v>155997</v>
       </c>
       <c r="E19" t="n">
-        <v>7.05</v>
+        <v>7.0411764705882</v>
       </c>
       <c r="F19" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G19" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H19" t="n">
-        <v>1294</v>
+        <v>1384</v>
       </c>
       <c r="I19" t="n">
         <v>1</v>
@@ -7153,64 +7153,64 @@
         <v>3</v>
       </c>
       <c r="AA19" t="n">
-        <v>2.86476483</v>
+        <v>2.92055983</v>
       </c>
       <c r="AB19" t="n">
-        <v>1141</v>
+        <v>1211</v>
       </c>
       <c r="AC19" t="n">
         <v>4</v>
       </c>
       <c r="AD19" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AE19" t="n">
-        <v>736</v>
+        <v>770</v>
       </c>
       <c r="AF19" t="n">
-        <v>90.085679314565</v>
+        <v>89.95327102803699</v>
       </c>
       <c r="AG19" t="n">
-        <v>817</v>
+        <v>856</v>
       </c>
       <c r="AH19" t="n">
-        <v>321</v>
+        <v>339</v>
       </c>
       <c r="AI19" t="n">
-        <v>415</v>
+        <v>431</v>
       </c>
       <c r="AJ19" t="n">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="AK19" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AL19" t="n">
-        <v>41.176470588235</v>
+        <v>41.666666666667</v>
       </c>
       <c r="AM19" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AN19" t="n">
-        <v>23.076923076923</v>
+        <v>23.943661971831</v>
       </c>
       <c r="AO19" t="n">
         <v>25</v>
       </c>
       <c r="AP19" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AQ19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AR19" t="n">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="AS19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AT19" t="n">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="AU19" t="n">
         <v>3</v>
@@ -7222,40 +7222,40 @@
         <v>0</v>
       </c>
       <c r="AX19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AZ19" t="n">
-        <v>30.769230769231</v>
+        <v>35.714285714286</v>
       </c>
       <c r="BA19" t="n">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="BB19" t="n">
-        <v>59.574468085106</v>
+        <v>60.747663551402</v>
       </c>
       <c r="BC19" t="n">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="BD19" t="n">
-        <v>59.722222222222</v>
+        <v>60.714285714286</v>
       </c>
       <c r="BE19" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BF19" t="n">
-        <v>59.090909090909</v>
+        <v>60.869565217391</v>
       </c>
       <c r="BG19" t="n">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="BH19" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BI19" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BJ19" t="n">
         <v>2</v>
@@ -7273,22 +7273,22 @@
         <v>5</v>
       </c>
       <c r="BO19" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="BP19" t="n">
         <v>0</v>
       </c>
       <c r="BQ19" t="n">
-        <v>112.8</v>
+        <v>119.7</v>
       </c>
       <c r="BR19" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BS19" t="n">
         <v>3</v>
       </c>
       <c r="BT19" t="n">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="BU19" t="n">
         <v>0</v>
@@ -7312,64 +7312,64 @@
         <v>5</v>
       </c>
       <c r="CB19" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="CC19" t="n">
+        <v>44</v>
+      </c>
+      <c r="CD19" t="n">
+        <v>22</v>
+      </c>
+      <c r="CE19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ19" t="n">
+        <v>18</v>
+      </c>
+      <c r="CK19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR19" t="n">
+        <v>25</v>
+      </c>
+      <c r="CS19" t="n">
+        <v>14</v>
+      </c>
+      <c r="CT19" t="n">
+        <v>71</v>
+      </c>
+      <c r="CU19" t="n">
         <v>42</v>
-      </c>
-      <c r="CD19" t="n">
-        <v>21</v>
-      </c>
-      <c r="CE19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ19" t="n">
-        <v>16</v>
-      </c>
-      <c r="CK19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CL19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR19" t="n">
-        <v>24</v>
-      </c>
-      <c r="CS19" t="n">
-        <v>13</v>
-      </c>
-      <c r="CT19" t="n">
-        <v>65</v>
-      </c>
-      <c r="CU19" t="n">
-        <v>38</v>
       </c>
       <c r="CV19" t="n">
         <v>9</v>
@@ -7384,13 +7384,13 @@
         <v>0</v>
       </c>
       <c r="CZ19" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="DA19" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="DB19" t="n">
-        <v>65.51724137930999</v>
+        <v>67.64705882352899</v>
       </c>
       <c r="DC19" t="n">
         <v>0</v>
@@ -7402,10 +7402,10 @@
         <v>0</v>
       </c>
       <c r="DF19" t="n">
-        <v>345</v>
+        <v>364</v>
       </c>
       <c r="DG19" t="n">
-        <v>472</v>
+        <v>492</v>
       </c>
       <c r="DH19" t="n">
         <v>0</v>
@@ -7797,16 +7797,16 @@
         <v>128383</v>
       </c>
       <c r="E21" t="n">
-        <v>7.3235294117647</v>
+        <v>7.2777777777778</v>
       </c>
       <c r="F21" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G21" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H21" t="n">
-        <v>1530</v>
+        <v>1620</v>
       </c>
       <c r="I21" t="n">
         <v>3</v>
@@ -7861,10 +7861,10 @@
         <v>0</v>
       </c>
       <c r="AA21" t="n">
-        <v>0.01735503</v>
+        <v>0.01816931</v>
       </c>
       <c r="AB21" t="n">
-        <v>766</v>
+        <v>804</v>
       </c>
       <c r="AC21" t="n">
         <v>0</v>
@@ -7873,28 +7873,28 @@
         <v>0</v>
       </c>
       <c r="AE21" t="n">
-        <v>460</v>
+        <v>474</v>
       </c>
       <c r="AF21" t="n">
-        <v>82.58527827648101</v>
+        <v>81.02564102564099</v>
       </c>
       <c r="AG21" t="n">
-        <v>557</v>
+        <v>585</v>
       </c>
       <c r="AH21" t="n">
-        <v>421</v>
+        <v>433</v>
       </c>
       <c r="AI21" t="n">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="AJ21" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AK21" t="n">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="AL21" t="n">
-        <v>47.126436781609</v>
+        <v>44.791666666667</v>
       </c>
       <c r="AM21" t="n">
         <v>0</v>
@@ -7912,7 +7912,7 @@
         <v>0</v>
       </c>
       <c r="AR21" t="n">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="AS21" t="n">
         <v>1</v>
@@ -7939,31 +7939,31 @@
         <v>0</v>
       </c>
       <c r="BA21" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="BB21" t="n">
-        <v>91.304347826087</v>
+        <v>92</v>
       </c>
       <c r="BC21" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BD21" t="n">
-        <v>90</v>
+        <v>90.90909090909101</v>
       </c>
       <c r="BE21" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BF21" t="n">
-        <v>92.30769230769199</v>
+        <v>92.857142857143</v>
       </c>
       <c r="BG21" t="n">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="BH21" t="n">
         <v>1</v>
       </c>
       <c r="BI21" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BJ21" t="n">
         <v>0</v>
@@ -7975,28 +7975,28 @@
         <v>0</v>
       </c>
       <c r="BM21" t="n">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="BN21" t="n">
         <v>5</v>
       </c>
       <c r="BO21" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="BP21" t="n">
         <v>0</v>
       </c>
       <c r="BQ21" t="n">
-        <v>124.5</v>
+        <v>131</v>
       </c>
       <c r="BR21" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BS21" t="n">
         <v>0</v>
       </c>
       <c r="BT21" t="n">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="BU21" t="n">
         <v>0</v>
@@ -8023,10 +8023,10 @@
         <v>0</v>
       </c>
       <c r="CC21" t="n">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="CD21" t="n">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="CE21" t="n">
         <v>0</v>
@@ -8035,16 +8035,16 @@
         <v>0</v>
       </c>
       <c r="CG21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="CH21" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="CI21" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="CJ21" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="CK21" t="n">
         <v>0</v>
@@ -8059,7 +8059,7 @@
         <v>19</v>
       </c>
       <c r="CO21" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="CP21" t="n">
         <v>0</v>
@@ -8092,7 +8092,7 @@
         <v>0</v>
       </c>
       <c r="CZ21" t="n">
-        <v>174</v>
+        <v>192</v>
       </c>
       <c r="DA21" t="n">
         <v>0</v>
@@ -8107,16 +8107,16 @@
         <v>1</v>
       </c>
       <c r="DE21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="DF21" t="n">
-        <v>445</v>
+        <v>458</v>
       </c>
       <c r="DG21" t="n">
-        <v>112</v>
+        <v>127</v>
       </c>
       <c r="DH21" t="n">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="DI21" t="n">
         <v>0</v>
@@ -8130,7 +8130,7 @@
         </is>
       </c>
       <c r="DL21" t="n">
-        <v>4.2356</v>
+        <v>3.9661</v>
       </c>
     </row>
     <row r="22">

--- a/sofaplayer/Ligue_1/Olympique de Marseille_stats.xlsx
+++ b/sofaplayer/Ligue_1/Olympique de Marseille_stats.xlsx
@@ -1035,7 +1035,7 @@
         <v>942116</v>
       </c>
       <c r="E2" t="n">
-        <v>7.5142857142857</v>
+        <v>7.5047619047619</v>
       </c>
       <c r="F2" t="n">
         <v>21</v>
@@ -1053,7 +1053,7 @@
         <v>14</v>
       </c>
       <c r="K2" t="n">
-        <v>10.4436</v>
+        <v>10.5335</v>
       </c>
       <c r="L2" t="n">
         <v>117.92857142857</v>
@@ -1101,7 +1101,7 @@
         <v>4</v>
       </c>
       <c r="AA2" t="n">
-        <v>4.1206815</v>
+        <v>4.1206818</v>
       </c>
       <c r="AB2" t="n">
         <v>1234</v>
@@ -1227,7 +1227,7 @@
         <v>0</v>
       </c>
       <c r="BQ2" t="n">
-        <v>157.8</v>
+        <v>157.6</v>
       </c>
       <c r="BR2" t="n">
         <v>21</v>
@@ -1263,7 +1263,7 @@
         <v>13</v>
       </c>
       <c r="CC2" t="n">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="CD2" t="n">
         <v>52</v>
@@ -1391,7 +1391,7 @@
         <v>51498</v>
       </c>
       <c r="E3" t="n">
-        <v>7.0052631578947</v>
+        <v>7.0105263157895</v>
       </c>
       <c r="F3" t="n">
         <v>19</v>
@@ -1409,7 +1409,7 @@
         <v>6</v>
       </c>
       <c r="K3" t="n">
-        <v>7.5488</v>
+        <v>7.426</v>
       </c>
       <c r="L3" t="n">
         <v>197.66666666667</v>
@@ -1457,7 +1457,7 @@
         <v>5</v>
       </c>
       <c r="AA3" t="n">
-        <v>3.08041725</v>
+        <v>3.08032525</v>
       </c>
       <c r="AB3" t="n">
         <v>431</v>
@@ -1502,16 +1502,16 @@
         <v>4</v>
       </c>
       <c r="AP3" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AQ3" t="n">
         <v>5</v>
       </c>
       <c r="AR3" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AS3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AT3" t="n">
         <v>7</v>
@@ -1535,16 +1535,16 @@
         <v>38.461538461538</v>
       </c>
       <c r="BA3" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BB3" t="n">
-        <v>38.961038961039</v>
+        <v>37.662337662338</v>
       </c>
       <c r="BC3" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BD3" t="n">
-        <v>39.655172413793</v>
+        <v>37.931034482759</v>
       </c>
       <c r="BE3" t="n">
         <v>7</v>
@@ -1553,7 +1553,7 @@
         <v>36.842105263158</v>
       </c>
       <c r="BG3" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="BH3" t="n">
         <v>14</v>
@@ -1583,7 +1583,7 @@
         <v>0</v>
       </c>
       <c r="BQ3" t="n">
-        <v>133.1</v>
+        <v>133.2</v>
       </c>
       <c r="BR3" t="n">
         <v>19</v>
@@ -1673,7 +1673,7 @@
         <v>17</v>
       </c>
       <c r="CU3" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="CV3" t="n">
         <v>12</v>
@@ -1691,10 +1691,10 @@
         <v>8</v>
       </c>
       <c r="DA3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="DB3" t="n">
-        <v>71.428571428571</v>
+        <v>66.666666666667</v>
       </c>
       <c r="DC3" t="n">
         <v>0</v>
@@ -1813,7 +1813,7 @@
         <v>2</v>
       </c>
       <c r="AA4" t="n">
-        <v>1.11294917</v>
+        <v>1.09891517</v>
       </c>
       <c r="AB4" t="n">
         <v>337</v>
@@ -1861,10 +1861,10 @@
         <v>7</v>
       </c>
       <c r="AQ4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AR4" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AS4" t="n">
         <v>2</v>
@@ -2881,7 +2881,7 @@
         <v>2</v>
       </c>
       <c r="AA7" t="n">
-        <v>1.73292011</v>
+        <v>1.73291931</v>
       </c>
       <c r="AB7" t="n">
         <v>877</v>
@@ -3043,7 +3043,7 @@
         <v>6</v>
       </c>
       <c r="CC7" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="CD7" t="n">
         <v>16</v>
@@ -3189,7 +3189,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0.5211</v>
+        <v>0.4445</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -3237,10 +3237,10 @@
         <v>0</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.2298749</v>
+        <v>0.2298759</v>
       </c>
       <c r="AB8" t="n">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AC8" t="n">
         <v>0</v>
@@ -3270,7 +3270,7 @@
         <v>1</v>
       </c>
       <c r="AL8" t="n">
-        <v>14.285714285714</v>
+        <v>16.666666666667</v>
       </c>
       <c r="AM8" t="n">
         <v>0</v>
@@ -3288,7 +3288,7 @@
         <v>1</v>
       </c>
       <c r="AR8" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AS8" t="n">
         <v>5</v>
@@ -3309,22 +3309,22 @@
         <v>0</v>
       </c>
       <c r="AY8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AZ8" t="n">
-        <v>45.454545454545</v>
+        <v>40</v>
       </c>
       <c r="BA8" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BB8" t="n">
-        <v>55</v>
+        <v>52.5</v>
       </c>
       <c r="BC8" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BD8" t="n">
-        <v>56.410256410256</v>
+        <v>53.846153846154</v>
       </c>
       <c r="BE8" t="n">
         <v>0</v>
@@ -3333,7 +3333,7 @@
         <v>0</v>
       </c>
       <c r="BG8" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="BH8" t="n">
         <v>2</v>
@@ -3396,10 +3396,10 @@
         <v>0</v>
       </c>
       <c r="CB8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CC8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CD8" t="n">
         <v>2</v>
@@ -3447,13 +3447,13 @@
         <v>1</v>
       </c>
       <c r="CS8" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="CT8" t="n">
         <v>0</v>
       </c>
       <c r="CU8" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="CV8" t="n">
         <v>1</v>
@@ -3468,7 +3468,7 @@
         <v>0</v>
       </c>
       <c r="CZ8" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="DA8" t="n">
         <v>5</v>
@@ -3593,10 +3593,10 @@
         <v>0</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.73379777</v>
+        <v>0.73377377</v>
       </c>
       <c r="AB9" t="n">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="AC9" t="n">
         <v>0</v>
@@ -3949,10 +3949,10 @@
         <v>4</v>
       </c>
       <c r="AA10" t="n">
-        <v>1.34830183</v>
+        <v>1.34873883</v>
       </c>
       <c r="AB10" t="n">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="AC10" t="n">
         <v>3</v>
@@ -3961,19 +3961,19 @@
         <v>10</v>
       </c>
       <c r="AE10" t="n">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AF10" t="n">
-        <v>90.08746355685101</v>
+        <v>90.116279069767</v>
       </c>
       <c r="AG10" t="n">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AH10" t="n">
         <v>117</v>
       </c>
       <c r="AI10" t="n">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AJ10" t="n">
         <v>95</v>
@@ -3991,7 +3991,7 @@
         <v>33.333333333333</v>
       </c>
       <c r="AO10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AP10" t="n">
         <v>17</v>
@@ -4201,7 +4201,7 @@
         <v>127</v>
       </c>
       <c r="DG10" t="n">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="DH10" t="n">
         <v>0</v>
@@ -4595,7 +4595,7 @@
         <v>149593</v>
       </c>
       <c r="E12" t="n">
-        <v>7.195</v>
+        <v>7.205</v>
       </c>
       <c r="F12" t="n">
         <v>20</v>
@@ -4661,10 +4661,10 @@
         <v>3</v>
       </c>
       <c r="AA12" t="n">
-        <v>1.78922749</v>
+        <v>1.79039029</v>
       </c>
       <c r="AB12" t="n">
-        <v>1686</v>
+        <v>1688</v>
       </c>
       <c r="AC12" t="n">
         <v>3</v>
@@ -4682,13 +4682,13 @@
         <v>1449</v>
       </c>
       <c r="AH12" t="n">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="AI12" t="n">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="AJ12" t="n">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AK12" t="n">
         <v>52</v>
@@ -4703,7 +4703,7 @@
         <v>0</v>
       </c>
       <c r="AO12" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AP12" t="n">
         <v>19</v>
@@ -4712,7 +4712,7 @@
         <v>14</v>
       </c>
       <c r="AR12" t="n">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AS12" t="n">
         <v>17</v>
@@ -4724,7 +4724,7 @@
         <v>6</v>
       </c>
       <c r="AV12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW12" t="n">
         <v>0</v>
@@ -4742,13 +4742,13 @@
         <v>76</v>
       </c>
       <c r="BB12" t="n">
-        <v>54.285714285714</v>
+        <v>54.676258992806</v>
       </c>
       <c r="BC12" t="n">
         <v>61</v>
       </c>
       <c r="BD12" t="n">
-        <v>53.04347826087</v>
+        <v>53.508771929825</v>
       </c>
       <c r="BE12" t="n">
         <v>15</v>
@@ -4787,7 +4787,7 @@
         <v>0</v>
       </c>
       <c r="BQ12" t="n">
-        <v>143.9</v>
+        <v>144.1</v>
       </c>
       <c r="BR12" t="n">
         <v>20</v>
@@ -4820,7 +4820,7 @@
         <v>13</v>
       </c>
       <c r="CB12" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="CC12" t="n">
         <v>71</v>
@@ -4877,7 +4877,7 @@
         <v>5</v>
       </c>
       <c r="CU12" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="CV12" t="n">
         <v>10</v>
@@ -4895,10 +4895,10 @@
         <v>85</v>
       </c>
       <c r="DA12" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="DB12" t="n">
-        <v>57.894736842105</v>
+        <v>63.157894736842</v>
       </c>
       <c r="DC12" t="n">
         <v>0</v>
@@ -4910,10 +4910,10 @@
         <v>0</v>
       </c>
       <c r="DF12" t="n">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="DG12" t="n">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="DH12" t="n">
         <v>0</v>
@@ -5729,7 +5729,7 @@
         <v>0</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.27437429</v>
+        <v>0.27437439</v>
       </c>
       <c r="AB15" t="n">
         <v>1338</v>
@@ -5891,7 +5891,7 @@
         <v>3</v>
       </c>
       <c r="CC15" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="CD15" t="n">
         <v>13</v>
@@ -6085,7 +6085,7 @@
         <v>2</v>
       </c>
       <c r="AA16" t="n">
-        <v>0.68156775</v>
+        <v>0.68156774</v>
       </c>
       <c r="AB16" t="n">
         <v>951</v>
@@ -6247,7 +6247,7 @@
         <v>0</v>
       </c>
       <c r="CC16" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="CD16" t="n">
         <v>13</v>
@@ -6731,7 +6731,7 @@
         <v>860307</v>
       </c>
       <c r="E18" t="n">
-        <v>6.575</v>
+        <v>6.5625</v>
       </c>
       <c r="F18" t="n">
         <v>8</v>
@@ -6797,7 +6797,7 @@
         <v>0</v>
       </c>
       <c r="AA18" t="n">
-        <v>0.16975392</v>
+        <v>0.1697539</v>
       </c>
       <c r="AB18" t="n">
         <v>552</v>
@@ -6923,7 +6923,7 @@
         <v>0</v>
       </c>
       <c r="BQ18" t="n">
-        <v>52.6</v>
+        <v>52.5</v>
       </c>
       <c r="BR18" t="n">
         <v>8</v>
@@ -7087,7 +7087,7 @@
         <v>155997</v>
       </c>
       <c r="E19" t="n">
-        <v>7.0411764705882</v>
+        <v>7.0176470588235</v>
       </c>
       <c r="F19" t="n">
         <v>17</v>
@@ -7153,7 +7153,7 @@
         <v>3</v>
       </c>
       <c r="AA19" t="n">
-        <v>2.92055983</v>
+        <v>2.92055973</v>
       </c>
       <c r="AB19" t="n">
         <v>1211</v>
@@ -7168,10 +7168,10 @@
         <v>770</v>
       </c>
       <c r="AF19" t="n">
-        <v>89.95327102803699</v>
+        <v>89.848308051342</v>
       </c>
       <c r="AG19" t="n">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="AH19" t="n">
         <v>339</v>
@@ -7186,7 +7186,7 @@
         <v>15</v>
       </c>
       <c r="AL19" t="n">
-        <v>41.666666666667</v>
+        <v>40.540540540541</v>
       </c>
       <c r="AM19" t="n">
         <v>17</v>
@@ -7210,7 +7210,7 @@
         <v>5</v>
       </c>
       <c r="AT19" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AU19" t="n">
         <v>3</v>
@@ -7249,7 +7249,7 @@
         <v>60.869565217391</v>
       </c>
       <c r="BG19" t="n">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="BH19" t="n">
         <v>12</v>
@@ -7279,7 +7279,7 @@
         <v>0</v>
       </c>
       <c r="BQ19" t="n">
-        <v>119.7</v>
+        <v>119.3</v>
       </c>
       <c r="BR19" t="n">
         <v>17</v>
@@ -7288,7 +7288,7 @@
         <v>3</v>
       </c>
       <c r="BT19" t="n">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="BU19" t="n">
         <v>0</v>
@@ -7315,10 +7315,10 @@
         <v>7</v>
       </c>
       <c r="CC19" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="CD19" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="CE19" t="n">
         <v>0</v>
@@ -7384,7 +7384,7 @@
         <v>0</v>
       </c>
       <c r="CZ19" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="DA19" t="n">
         <v>23</v>
@@ -7405,7 +7405,7 @@
         <v>364</v>
       </c>
       <c r="DG19" t="n">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="DH19" t="n">
         <v>0</v>
@@ -7797,7 +7797,7 @@
         <v>128383</v>
       </c>
       <c r="E21" t="n">
-        <v>7.2777777777778</v>
+        <v>7.3</v>
       </c>
       <c r="F21" t="n">
         <v>18</v>
@@ -7864,7 +7864,7 @@
         <v>0.01816931</v>
       </c>
       <c r="AB21" t="n">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="AC21" t="n">
         <v>0</v>
@@ -7987,7 +7987,7 @@
         <v>0</v>
       </c>
       <c r="BQ21" t="n">
-        <v>131</v>
+        <v>131.4</v>
       </c>
       <c r="BR21" t="n">
         <v>18</v>
@@ -8023,7 +8023,7 @@
         <v>0</v>
       </c>
       <c r="CC21" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="CD21" t="n">
         <v>43</v>
@@ -8059,7 +8059,7 @@
         <v>19</v>
       </c>
       <c r="CO21" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="CP21" t="n">
         <v>0</v>
@@ -8130,7 +8130,7 @@
         </is>
       </c>
       <c r="DL21" t="n">
-        <v>3.9661</v>
+        <v>4.2575</v>
       </c>
     </row>
     <row r="22">
